--- a/db/load/cdisc/ct/sdtm/SDTM Terminology 2007-06-05.xlsx
+++ b/db/load/cdisc/ct/sdtm/SDTM Terminology 2007-06-05.xlsx
@@ -12836,9 +12836,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{2619E411-0A07-F447-8BFE-A48C969435AE}" name="Dave Iberson-Hurst" id="-1708235470" dateTime="2019-06-24T18:49:11"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
